--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6337,7 +6337,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7789,7 +7789,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>
@@ -9241,7 +9241,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1331,7 +1331,13 @@
     <t>For many results it is necessary to handle exceptional values in measurements.</t>
   </si>
   <si>
-    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t>ele-1
@@ -1358,9 +1364,6 @@
   </si>
   <si>
     <t>For some results, particularly numeric results, an interpretation is necessary to fully understand the significance of a result.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes identifying interpretations of observations.</t>
@@ -1827,10 +1830,7 @@
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
   </si>
   <si>
-    <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/de/ValueSet/vs-sentinel-conceptual-domain</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -10949,7 +10949,7 @@
         <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>82</v>
@@ -10995,11 +10995,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y73" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="Z73" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11026,7 +11028,7 @@
         <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11041,7 +11043,7 @@
         <v>106</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11052,14 +11054,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11081,16 +11083,16 @@
         <v>198</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11115,13 +11117,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11139,7 +11141,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11157,27 +11159,27 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11200,19 +11202,19 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11261,7 +11263,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11282,10 +11284,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11296,10 +11298,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11325,13 +11327,13 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11360,10 +11362,10 @@
         <v>341</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11381,7 +11383,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11399,27 +11401,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11445,16 +11447,16 @@
         <v>198</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11482,10 +11484,10 @@
         <v>341</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11503,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11524,10 +11526,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11538,10 +11540,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11564,16 +11566,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11623,7 +11625,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11641,27 +11643,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11684,16 +11686,16 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11743,7 +11745,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11761,27 +11763,27 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11804,19 +11806,19 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11865,7 +11867,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11877,7 +11879,7 @@
         <v>104</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11886,10 +11888,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11900,10 +11902,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12018,10 +12020,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12138,14 +12140,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12167,10 +12169,10 @@
         <v>140</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>143</v>
@@ -12225,7 +12227,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12260,10 +12262,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12286,16 +12288,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12345,7 +12347,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12354,10 +12356,10 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12366,10 +12368,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12380,10 +12382,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12406,16 +12408,16 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12465,7 +12467,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12474,10 +12476,10 @@
         <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12486,10 +12488,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12500,10 +12502,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12529,16 +12531,16 @@
         <v>198</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12566,10 +12568,10 @@
         <v>119</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12587,7 +12589,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12605,13 +12607,13 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12622,10 +12624,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12651,16 +12653,16 @@
         <v>198</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12688,10 +12690,10 @@
         <v>341</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12709,7 +12711,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12727,13 +12729,13 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12744,10 +12746,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12770,19 +12772,19 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12831,7 +12833,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12843,7 +12845,7 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12852,10 +12854,10 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>82</v>
@@ -12866,10 +12868,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12895,10 +12897,10 @@
         <v>215</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>259</v>
@@ -12951,7 +12953,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12972,10 +12974,10 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>82</v>
@@ -12986,10 +12988,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13012,16 +13014,16 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13071,7 +13073,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13092,10 +13094,10 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>82</v>
@@ -13106,10 +13108,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13132,16 +13134,16 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -13191,7 +13193,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13212,10 +13214,10 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>82</v>
@@ -13226,10 +13228,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13252,19 +13254,19 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13313,7 +13315,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -13334,10 +13336,10 @@
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>82</v>
@@ -13348,10 +13350,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13466,10 +13468,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13586,14 +13588,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13615,10 +13617,10 @@
         <v>140</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N95" t="s" s="2">
         <v>143</v>
@@ -13673,7 +13675,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13708,10 +13710,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13737,13 +13739,13 @@
         <v>198</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O96" t="s" s="2">
         <v>340</v>
@@ -13795,7 +13797,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>92</v>
@@ -13813,7 +13815,7 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>346</v>
@@ -13830,10 +13832,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13859,13 +13861,13 @@
         <v>406</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>408</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>410</v>
@@ -13915,7 +13917,7 @@
         <v>146</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13933,7 +13935,7 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>414</v>
@@ -13950,10 +13952,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>418</v>
@@ -13981,13 +13983,13 @@
         <v>198</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>408</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="O98" t="s" s="2">
         <v>410</v>
@@ -14019,7 +14021,7 @@
       </c>
       <c r="Y98" s="2"/>
       <c r="Z98" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14037,7 +14039,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -14055,7 +14057,7 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>414</v>
@@ -14072,10 +14074,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14089,7 +14091,7 @@
         <v>92</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14101,13 +14103,13 @@
         <v>198</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>423</v>
@@ -14135,11 +14137,9 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>581</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="Y99" s="2"/>
       <c r="Z99" t="s" s="2">
         <v>582</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -14168,7 +14168,7 @@
         <v>92</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14183,7 +14183,7 @@
         <v>106</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14201,7 +14201,7 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
@@ -14223,16 +14223,16 @@
         <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14257,13 +14257,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14299,19 +14299,19 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="101" hidden="true">
@@ -14351,10 +14351,10 @@
         <v>586</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>82</v>
@@ -14424,10 +14424,10 @@
         <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$125</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4850" uniqueCount="615">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -632,7 +632,7 @@
     <t>Observation.category</t>
   </si>
   <si>
-    <t>4</t>
+    <t>6</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
@@ -676,13 +676,13 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>Observation.category:Gender</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Observation.category:Gender.id</t>
+    <t>Observation.category:Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Gender_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_UMLS.id</t>
   </si>
   <si>
     <t>Observation.category.id</t>
@@ -701,7 +701,7 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.extension</t>
+    <t>Observation.category:Gender_UMLS.extension</t>
   </si>
   <si>
     <t>Observation.category.extension</t>
@@ -713,7 +713,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding</t>
+    <t>Observation.category:Gender_UMLS.coding</t>
   </si>
   <si>
     <t>Observation.category.coding</t>
@@ -744,19 +744,19 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.id</t>
+    <t>Observation.category:Gender_UMLS.coding.id</t>
   </si>
   <si>
     <t>Observation.category.coding.id</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.extension</t>
+    <t>Observation.category:Gender_UMLS.coding.extension</t>
   </si>
   <si>
     <t>Observation.category.coding.extension</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.system</t>
+    <t>Observation.category:Gender_UMLS.coding.system</t>
   </si>
   <si>
     <t>Observation.category.coding.system</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -786,7 +786,7 @@
     <t>./codeSystem</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.version</t>
+    <t>Observation.category:Gender_UMLS.coding.version</t>
   </si>
   <si>
     <t>Observation.category.coding.version</t>
@@ -810,7 +810,7 @@
     <t>./codeSystemVersion</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.code</t>
+    <t>Observation.category:Gender_UMLS.coding.code</t>
   </si>
   <si>
     <t>Observation.category.coding.code</t>
@@ -828,7 +828,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>263495000</t>
+    <t>C0079399</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -840,7 +840,7 @@
     <t>./code</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.display</t>
+    <t>Observation.category:Gender_UMLS.coding.display</t>
   </si>
   <si>
     <t>Observation.category.coding.display</t>
@@ -864,7 +864,7 @@
     <t>CV.displayName</t>
   </si>
   <si>
-    <t>Observation.category:Gender.coding.userSelected</t>
+    <t>Observation.category:Gender_UMLS.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.category.coding.userSelected</t>
@@ -895,7 +895,7 @@
     <t>CD.codingRationale</t>
   </si>
   <si>
-    <t>Observation.category:Gender.text</t>
+    <t>Observation.category:Gender_UMLS.text</t>
   </si>
   <si>
     <t>Observation.category.text</t>
@@ -922,46 +922,133 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>Observation.category:BiologicalSex</t>
-  </si>
-  <si>
-    <t>BiologicalSex</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.code</t>
+    <t>Observation.category:Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Gender_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.code</t>
+  </si>
+  <si>
+    <t>263495000</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:Gender_SNOMED.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS</t>
+  </si>
+  <si>
+    <t>BiologicalSex_UMLS</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.code</t>
+  </si>
+  <si>
+    <t>C1522384</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_UMLS.text</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED</t>
+  </si>
+  <si>
+    <t>BiologicalSex_SNOMED</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.code</t>
   </si>
   <si>
     <t>734000001</t>
   </si>
   <si>
-    <t>Observation.category:BiologicalSex.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.coding.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.category:BiologicalSex.text</t>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.category:BiologicalSex_SNOMED.text</t>
   </si>
   <si>
     <t>Observation.category:Persons</t>
@@ -1028,9 +1115,6 @@
   </si>
   <si>
     <t>Observation.category:NominalScale.coding.system</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
   </si>
   <si>
     <t>Observation.category:NominalScale.coding.version</t>
@@ -2162,7 +2246,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP101"/>
+  <dimension ref="A1:AP125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2171,9 +2255,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.69140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.35546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.9453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -6249,7 +6333,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>82</v>
@@ -6326,7 +6410,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>248</v>
@@ -6446,7 +6530,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>256</v>
@@ -6491,7 +6575,7 @@
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>82</v>
@@ -6568,7 +6652,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>266</v>
@@ -6690,7 +6774,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>274</v>
@@ -6812,7 +6896,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>284</v>
@@ -6934,13 +7018,13 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>82</v>
@@ -7058,7 +7142,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>214</v>
@@ -7176,7 +7260,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>220</v>
@@ -7296,7 +7380,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>224</v>
@@ -7418,7 +7502,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>234</v>
@@ -7536,7 +7620,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>236</v>
@@ -7656,7 +7740,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>238</v>
@@ -7778,7 +7862,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -7898,7 +7982,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>256</v>
@@ -7943,7 +8027,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>82</v>
@@ -8020,7 +8104,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -8142,7 +8226,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -8264,7 +8348,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>284</v>
@@ -8386,13 +8470,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>82</v>
@@ -8510,7 +8594,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>214</v>
@@ -8628,7 +8712,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>220</v>
@@ -8748,7 +8832,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>224</v>
@@ -8870,7 +8954,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>234</v>
@@ -8988,7 +9072,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>236</v>
@@ -9108,7 +9192,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>238</v>
@@ -9153,7 +9237,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>82</v>
@@ -9841,11 +9925,13 @@
         <v>335</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>336</v>
+      </c>
       <c r="D64" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9855,28 +9941,28 @@
         <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>337</v>
+        <v>199</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>338</v>
+        <v>200</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>339</v>
+        <v>201</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>340</v>
+        <v>202</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9901,13 +9987,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>342</v>
+        <v>203</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>343</v>
+        <v>204</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9925,13 +10011,13 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>104</v>
@@ -9940,30 +10026,30 @@
         <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>344</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>347</v>
+        <v>209</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>348</v>
+        <v>210</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>349</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9983,23 +10069,19 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>352</v>
+        <v>216</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10047,7 +10129,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>350</v>
+        <v>218</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10056,25 +10138,25 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>357</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>358</v>
+        <v>113</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>82</v>
@@ -10082,14 +10164,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10105,19 +10187,19 @@
         <v>82</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>361</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>363</v>
+        <v>221</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>364</v>
+        <v>143</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10155,19 +10237,19 @@
         <v>82</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>360</v>
+        <v>222</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10179,7 +10261,7 @@
         <v>104</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
@@ -10188,13 +10270,13 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>365</v>
+        <v>106</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>359</v>
+        <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>82</v>
@@ -10202,21 +10284,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10228,19 +10310,19 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>368</v>
+        <v>225</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>369</v>
+        <v>226</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>370</v>
+        <v>227</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>371</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>372</v>
+        <v>229</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10289,34 +10371,34 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>366</v>
+        <v>230</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>375</v>
+        <v>232</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>82</v>
@@ -10324,14 +10406,14 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>377</v>
+        <v>340</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>377</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10347,23 +10429,19 @@
         <v>82</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>379</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10411,7 +10489,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>377</v>
+        <v>218</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10420,25 +10498,25 @@
         <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>386</v>
+        <v>113</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>82</v>
@@ -10446,21 +10524,21 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>388</v>
+        <v>341</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>388</v>
+        <v>236</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10469,19 +10547,19 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>389</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10519,31 +10597,31 @@
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>388</v>
+        <v>222</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10552,13 +10630,13 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>394</v>
+        <v>106</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>82</v>
@@ -10566,10 +10644,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>342</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>396</v>
+        <v>238</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10577,10 +10655,10 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10592,26 +10670,26 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>397</v>
+        <v>108</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
+        <v>239</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
+        <v>240</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>168</v>
+        <v>241</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>400</v>
+        <v>242</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
@@ -10653,34 +10731,34 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>396</v>
+        <v>244</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>401</v>
+        <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>402</v>
+        <v>245</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>403</v>
+        <v>246</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>82</v>
@@ -10688,10 +10766,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>405</v>
+        <v>248</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10714,20 +10792,18 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>406</v>
+        <v>215</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>407</v>
+        <v>249</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>408</v>
+        <v>250</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>410</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10763,17 +10839,19 @@
         <v>82</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC71" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>405</v>
+        <v>252</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10782,7 +10860,7 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>105</v>
@@ -10791,40 +10869,38 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>414</v>
+        <v>253</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>415</v>
+        <v>254</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>344</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="C72" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10836,26 +10912,26 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>407</v>
+        <v>257</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>408</v>
+        <v>258</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>409</v>
+        <v>259</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>410</v>
+        <v>260</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" t="s" s="2">
-        <v>82</v>
+        <v>345</v>
       </c>
       <c r="S72" t="s" s="2">
         <v>82</v>
@@ -10897,7 +10973,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>405</v>
+        <v>262</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10906,7 +10982,7 @@
         <v>92</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>105</v>
@@ -10915,27 +10991,27 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>413</v>
+        <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>414</v>
+        <v>263</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>415</v>
+        <v>264</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP72" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>419</v>
+        <v>346</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>419</v>
+        <v>266</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10955,22 +11031,22 @@
         <v>82</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>420</v>
+        <v>267</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>421</v>
+        <v>268</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>422</v>
+        <v>259</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>423</v>
+        <v>269</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -10995,13 +11071,13 @@
         <v>82</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>82</v>
@@ -11019,7 +11095,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>419</v>
+        <v>270</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11028,7 +11104,7 @@
         <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>427</v>
+        <v>104</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>105</v>
@@ -11040,10 +11116,10 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>428</v>
+        <v>272</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11054,21 +11130,21 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>429</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>429</v>
+        <v>274</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -11077,22 +11153,22 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>431</v>
+        <v>276</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>432</v>
+        <v>277</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>433</v>
+        <v>278</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>434</v>
+        <v>279</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
@@ -11117,13 +11193,13 @@
         <v>82</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>424</v>
+        <v>82</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>82</v>
@@ -11141,13 +11217,13 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>104</v>
@@ -11159,27 +11235,27 @@
         <v>82</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>438</v>
+        <v>281</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>440</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>441</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>441</v>
+        <v>284</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11190,7 +11266,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
@@ -11199,22 +11275,22 @@
         <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>442</v>
+        <v>215</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>443</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>444</v>
+        <v>286</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>445</v>
+        <v>287</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>446</v>
+        <v>288</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11263,13 +11339,13 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>441</v>
+        <v>289</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>104</v>
@@ -11284,10 +11360,10 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>447</v>
+        <v>290</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>448</v>
+        <v>291</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11298,24 +11374,26 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>449</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="D76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
@@ -11327,15 +11405,17 @@
         <v>198</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>450</v>
+        <v>199</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>451</v>
+        <v>200</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11359,13 +11439,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>341</v>
+        <v>119</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>453</v>
+        <v>203</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>454</v>
+        <v>204</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11383,13 +11463,13 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>449</v>
+        <v>196</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>104</v>
@@ -11401,27 +11481,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>455</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>456</v>
+        <v>208</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>457</v>
+        <v>209</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>458</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>459</v>
+        <v>351</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>459</v>
+        <v>214</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11444,20 +11524,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>460</v>
+        <v>216</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11481,13 +11557,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11505,7 +11581,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>459</v>
+        <v>218</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11514,10 +11590,10 @@
         <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11526,10 +11602,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>467</v>
+        <v>113</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11540,21 +11616,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>468</v>
+        <v>352</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>468</v>
+        <v>220</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11566,16 +11642,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>469</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>470</v>
+        <v>141</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>471</v>
+        <v>221</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>472</v>
+        <v>143</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11613,57 +11689,57 @@
         <v>82</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>468</v>
+        <v>222</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>473</v>
+        <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>475</v>
+        <v>106</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>476</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>477</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>477</v>
+        <v>224</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11671,10 +11747,10 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
@@ -11683,21 +11759,23 @@
         <v>82</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>478</v>
+        <v>225</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>479</v>
+        <v>226</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>480</v>
+        <v>227</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O79" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11745,45 +11823,45 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>477</v>
+        <v>230</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>483</v>
+        <v>231</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>484</v>
+        <v>232</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>485</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>486</v>
+        <v>354</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>486</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11794,7 +11872,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>82</v>
@@ -11806,20 +11884,16 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>487</v>
+        <v>215</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>488</v>
+        <v>216</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>82</v>
       </c>
@@ -11867,19 +11941,19 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>486</v>
+        <v>218</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -11888,10 +11962,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>493</v>
+        <v>82</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>494</v>
+        <v>113</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>
@@ -11902,21 +11976,21 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>495</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>495</v>
+        <v>236</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>82</v>
@@ -11928,15 +12002,17 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>216</v>
+        <v>141</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>82</v>
@@ -11973,31 +12049,31 @@
         <v>82</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>148</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -12009,7 +12085,7 @@
         <v>82</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>82</v>
@@ -12020,21 +12096,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>496</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>496</v>
+        <v>238</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -12043,27 +12119,29 @@
         <v>82</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>241</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>242</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>82</v>
@@ -12093,31 +12171,31 @@
         <v>82</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -12126,10 +12204,10 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>106</v>
+        <v>246</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>82</v>
@@ -12140,46 +12218,44 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>497</v>
+        <v>357</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>497</v>
+        <v>248</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>499</v>
+        <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -12227,19 +12303,19 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>501</v>
+        <v>252</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
@@ -12248,10 +12324,10 @@
         <v>82</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>82</v>
+        <v>253</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>82</v>
@@ -12262,10 +12338,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>502</v>
+        <v>358</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>502</v>
+        <v>256</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12273,7 +12349,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>92</v>
@@ -12285,27 +12361,29 @@
         <v>82</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>503</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>504</v>
+        <v>257</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>505</v>
+        <v>258</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
-        <v>82</v>
+        <v>359</v>
       </c>
       <c r="S84" t="s" s="2">
         <v>82</v>
@@ -12347,7 +12425,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>502</v>
+        <v>262</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12356,10 +12434,10 @@
         <v>92</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>508</v>
+        <v>105</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>82</v>
@@ -12368,10 +12446,10 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>509</v>
+        <v>263</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>510</v>
+        <v>264</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>82</v>
@@ -12382,10 +12460,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>511</v>
+        <v>360</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>511</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12405,21 +12483,23 @@
         <v>82</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>503</v>
+        <v>215</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>512</v>
+        <v>267</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>513</v>
+        <v>268</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
       </c>
@@ -12467,7 +12547,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>511</v>
+        <v>270</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12476,10 +12556,10 @@
         <v>92</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>507</v>
+        <v>104</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>508</v>
+        <v>105</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
@@ -12488,10 +12568,10 @@
         <v>82</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>509</v>
+        <v>271</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>514</v>
+        <v>272</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>82</v>
@@ -12502,10 +12582,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>515</v>
+        <v>361</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>515</v>
+        <v>274</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12525,22 +12605,22 @@
         <v>82</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>198</v>
+        <v>275</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>516</v>
+        <v>276</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>517</v>
+        <v>277</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>518</v>
+        <v>278</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>519</v>
+        <v>279</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12565,13 +12645,13 @@
         <v>82</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>520</v>
+        <v>82</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>521</v>
+        <v>82</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>82</v>
@@ -12589,7 +12669,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>515</v>
+        <v>280</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
@@ -12607,13 +12687,13 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>523</v>
+        <v>281</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>439</v>
+        <v>282</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>82</v>
@@ -12624,10 +12704,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>524</v>
+        <v>362</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>524</v>
+        <v>284</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12638,7 +12718,7 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
@@ -12647,22 +12727,22 @@
         <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>525</v>
+        <v>285</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>526</v>
+        <v>286</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>527</v>
+        <v>287</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>528</v>
+        <v>288</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12687,13 +12767,13 @@
         <v>82</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>529</v>
+        <v>82</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>530</v>
+        <v>82</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>82</v>
@@ -12711,13 +12791,13 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>524</v>
+        <v>289</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>104</v>
@@ -12729,13 +12809,13 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>522</v>
+        <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>523</v>
+        <v>290</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>439</v>
+        <v>291</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12746,18 +12826,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>531</v>
+        <v>363</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>531</v>
+        <v>363</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>82</v>
+        <v>364</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>92</v>
@@ -12769,22 +12849,22 @@
         <v>82</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>532</v>
+        <v>198</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>533</v>
+        <v>365</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>534</v>
+        <v>366</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>535</v>
+        <v>367</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>536</v>
+        <v>368</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12809,13 +12889,13 @@
         <v>82</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>82</v>
@@ -12833,10 +12913,10 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>531</v>
+        <v>363</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>92</v>
@@ -12845,33 +12925,33 @@
         <v>104</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>537</v>
+        <v>105</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>82</v>
+        <v>372</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>538</v>
+        <v>374</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>539</v>
+        <v>375</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>82</v>
+        <v>376</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>82</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>540</v>
+        <v>378</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>540</v>
+        <v>378</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12891,21 +12971,23 @@
         <v>82</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>215</v>
+        <v>379</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>541</v>
+        <v>380</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>542</v>
+        <v>381</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>82</v>
       </c>
@@ -12953,7 +13035,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>540</v>
+        <v>378</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12965,22 +13047,22 @@
         <v>104</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>509</v>
+        <v>385</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>543</v>
+        <v>386</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>82</v>
@@ -12988,10 +13070,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -13014,16 +13096,16 @@
         <v>93</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>545</v>
+        <v>389</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>546</v>
+        <v>390</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>548</v>
+        <v>392</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13073,7 +13155,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>544</v>
+        <v>388</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -13094,13 +13176,13 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>549</v>
+        <v>374</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>550</v>
+        <v>393</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP90" t="s" s="2">
         <v>82</v>
@@ -13108,21 +13190,21 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>551</v>
+        <v>394</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>551</v>
+        <v>394</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>82</v>
+        <v>395</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
@@ -13134,18 +13216,20 @@
         <v>93</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>553</v>
+        <v>397</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>554</v>
+        <v>398</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="O91" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -13193,13 +13277,13 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>551</v>
+        <v>394</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>104</v>
@@ -13208,19 +13292,19 @@
         <v>170</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>82</v>
+        <v>401</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>549</v>
+        <v>402</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>556</v>
+        <v>403</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>82</v>
+        <v>404</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>82</v>
@@ -13228,21 +13312,21 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>557</v>
+        <v>405</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>557</v>
+        <v>405</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>82</v>
+        <v>406</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>82</v>
@@ -13254,19 +13338,19 @@
         <v>93</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>487</v>
+        <v>407</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>558</v>
+        <v>408</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>559</v>
+        <v>409</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>560</v>
+        <v>410</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>561</v>
+        <v>411</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13315,34 +13399,34 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>557</v>
+        <v>405</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>82</v>
+        <v>412</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>562</v>
+        <v>413</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>563</v>
+        <v>414</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AP92" t="s" s="2">
         <v>82</v>
@@ -13350,10 +13434,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>564</v>
+        <v>416</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13373,18 +13457,20 @@
         <v>82</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>215</v>
+        <v>417</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>216</v>
+        <v>418</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13433,7 +13519,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>218</v>
+        <v>416</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13442,10 +13528,10 @@
         <v>92</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
@@ -13454,13 +13540,13 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>82</v>
+        <v>421</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>113</v>
+        <v>422</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>82</v>
+        <v>423</v>
       </c>
       <c r="AP93" t="s" s="2">
         <v>82</v>
@@ -13468,14 +13554,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>565</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>565</v>
+        <v>424</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13491,21 +13577,23 @@
         <v>82</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>140</v>
+        <v>425</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>141</v>
+        <v>426</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>221</v>
+        <v>427</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O94" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>82</v>
       </c>
@@ -13541,19 +13629,19 @@
         <v>82</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>222</v>
+        <v>424</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13565,22 +13653,22 @@
         <v>104</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>82</v>
+        <v>429</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>106</v>
+        <v>431</v>
       </c>
       <c r="AO94" t="s" s="2">
-        <v>82</v>
+        <v>432</v>
       </c>
       <c r="AP94" t="s" s="2">
         <v>82</v>
@@ -13588,45 +13676,45 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>566</v>
+        <v>433</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>566</v>
+        <v>433</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J95" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>140</v>
+        <v>434</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>499</v>
+        <v>435</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>500</v>
+        <v>436</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>143</v>
+        <v>437</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>152</v>
+        <v>438</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13663,68 +13751,68 @@
         <v>82</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="AC95" s="2"/>
       <c r="AD95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>501</v>
+        <v>433</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>82</v>
+        <v>441</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>82</v>
+        <v>442</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>106</v>
+        <v>443</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP95" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>567</v>
+        <v>445</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="C96" s="2"/>
+        <v>433</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>446</v>
+      </c>
       <c r="D96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13739,16 +13827,16 @@
         <v>198</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>568</v>
+        <v>435</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>569</v>
+        <v>436</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>570</v>
+        <v>437</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>340</v>
+        <v>438</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
@@ -13773,13 +13861,13 @@
         <v>82</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>343</v>
+        <v>82</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>82</v>
@@ -13797,16 +13885,16 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>567</v>
+        <v>433</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>104</v>
+        <v>440</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>105</v>
@@ -13815,27 +13903,27 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>571</v>
+        <v>441</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>347</v>
+        <v>443</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13855,22 +13943,22 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>406</v>
+        <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>573</v>
+        <v>448</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>574</v>
+        <v>450</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13895,29 +13983,31 @@
         <v>82</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>82</v>
+        <v>452</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>82</v>
+        <v>453</v>
       </c>
       <c r="Z97" t="s" s="2">
-        <v>82</v>
+        <v>454</v>
       </c>
       <c r="AA97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB97" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC97" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>146</v>
+        <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>572</v>
+        <v>447</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13926,7 +14016,7 @@
         <v>92</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>104</v>
+        <v>455</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>105</v>
@@ -13935,64 +14025,62 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>575</v>
+        <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>414</v>
+        <v>106</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP97" t="s" s="2">
-        <v>416</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>576</v>
+        <v>457</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="C98" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>198</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>573</v>
+        <v>459</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>408</v>
+        <v>460</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>574</v>
+        <v>461</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -14017,11 +14105,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y98" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="Z98" t="s" s="2">
-        <v>577</v>
+        <v>464</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -14039,13 +14129,13 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>572</v>
+        <v>457</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>104</v>
@@ -14057,27 +14147,27 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>575</v>
+        <v>465</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>578</v>
+        <v>469</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>578</v>
+        <v>469</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14088,10 +14178,10 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>82</v>
@@ -14100,19 +14190,19 @@
         <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>198</v>
+        <v>470</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>579</v>
+        <v>471</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>580</v>
+        <v>472</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>581</v>
+        <v>473</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -14137,11 +14227,13 @@
         <v>82</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y99" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z99" t="s" s="2">
-        <v>582</v>
+        <v>82</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>82</v>
@@ -14159,16 +14251,16 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>578</v>
+        <v>469</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>427</v>
+        <v>104</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>105</v>
@@ -14180,10 +14272,10 @@
         <v>82</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>106</v>
+        <v>475</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>428</v>
+        <v>476</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
@@ -14194,21 +14286,21 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>583</v>
+        <v>477</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>583</v>
+        <v>477</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>430</v>
+        <v>82</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -14223,17 +14315,15 @@
         <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>82</v>
       </c>
@@ -14257,13 +14347,13 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>436</v>
+        <v>482</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14281,13 +14371,13 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>583</v>
+        <v>477</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>104</v>
@@ -14299,27 +14389,27 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>439</v>
+        <v>485</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>440</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>584</v>
+        <v>487</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>584</v>
+        <v>487</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14330,7 +14420,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -14342,13 +14432,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>83</v>
+        <v>198</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>585</v>
+        <v>488</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>586</v>
+        <v>489</v>
       </c>
       <c r="N101" t="s" s="2">
         <v>490</v>
@@ -14379,13 +14469,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14403,41 +14493,2939 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP108" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" hidden="true">
+      <c r="A109" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AO109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP109" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" hidden="true">
+      <c r="A110" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B110" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E110" s="2"/>
+      <c r="F110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G110" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K110" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L110" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M110" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O110" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="P110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q110" s="2"/>
+      <c r="R110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y110" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="Z110" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AA110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF110" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG110" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH110" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI110" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ110" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL110" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM110" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN110" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO110" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP110" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="111" hidden="true">
+      <c r="A111" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B111" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K111" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="P111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q111" s="2"/>
+      <c r="R111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y111" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z111" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AA111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF111" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG111" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH111" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI111" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ111" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL111" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AM111" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN111" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO111" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP111" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" hidden="true">
+      <c r="A112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E112" s="2"/>
+      <c r="F112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="P112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q112" s="2"/>
+      <c r="R112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI112" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ112" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AK112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AN112" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AO112" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP112" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" hidden="true">
+      <c r="A113" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B113" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E113" s="2"/>
+      <c r="F113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K113" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N113" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O113" s="2"/>
+      <c r="P113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q113" s="2"/>
+      <c r="R113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF113" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG113" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH113" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI113" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN113" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AO113" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP113" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="B114" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="O114" s="2"/>
+      <c r="P114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q114" s="2"/>
+      <c r="R114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN114" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AO114" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP114" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AN115" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="AG101" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH101" t="s" s="2">
+      <c r="AO115" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G116" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AI101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AO101" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP101" t="s" s="2">
+      <c r="H116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="P116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>590</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O118" s="2"/>
+      <c r="P118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>594</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AC121" s="2"/>
+      <c r="AD121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="C122" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="D122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y122" s="2"/>
+      <c r="Z122" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP122" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B123" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E123" s="2"/>
+      <c r="F123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q123" s="2"/>
+      <c r="R123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="Y123" s="2"/>
+      <c r="Z123" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO123" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP123" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="E124" s="2"/>
+      <c r="F124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N124" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="O124" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="P124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q124" s="2"/>
+      <c r="R124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN124" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO124" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP124" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="B125" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E125" s="2"/>
+      <c r="F125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="P125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q125" s="2"/>
+      <c r="R125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN125" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AO125" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP125" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP101">
+  <autoFilter ref="A1:AP125">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -14447,7 +17435,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI100">
+  <conditionalFormatting sqref="A2:AI124">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Derivation</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/CodeSystem/umls</t>
+    <t>http://www.nlm.nih.gov/research/umls/</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -774,7 +774,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://www.nlm.nih.gov/research/umls/</t>
+    <t>http://www.nlm.nih.gov/research/umls</t>
   </si>
   <si>
     <t>Coding.system</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cv-biological-sex.xlsx
+++ b/output/StructureDefinition-cv-biological-sex.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
